--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-matrices.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-matrices.xlsx
@@ -2072,7 +2072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,14 +2083,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2150,7 +2142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -2163,9 +2155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6316,7 +6305,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="3"/>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -6877,10 +6866,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -7454,7 +7443,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -15941,7 +15930,7 @@
         <v>12</v>
       </c>
       <c r="T1" s="3"/>
-      <c r="U1" s="5" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16720,7 +16709,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
